--- a/biology/Zoologie/Argali/Argali.xlsx
+++ b/biology/Zoologie/Argali/Argali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ovis ammon
-L'Argali[1] (Ovis ammon) est une espèce de Capriné, plus spécifiquement un ovin, vivant en Asie centrale, au Tibet en Chine et en Mongolie. 
-Cette espèce a été décrite par Marco Polo[2]. Une sous espèce d'Argali porte son nom : Ovis ammon polii.
+L'Argali (Ovis ammon) est une espèce de Capriné, plus spécifiquement un ovin, vivant en Asie centrale, au Tibet en Chine et en Mongolie. 
+Cette espèce a été décrite par Marco Polo. Une sous espèce d'Argali porte son nom : Ovis ammon polii.
 Cet animal provient d'une radiation vers l'Asie orientale de mouflons dont le nombre de chromosomes est passé de 54 à 56. 
-Menacé dans son milieu d'origine, il s'avère envahissant dans certaines régions du monde où il a été introduit[3].
+Menacé dans son milieu d'origine, il s'avère envahissant dans certaines régions du monde où il a été introduit.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom argali[4] est un mot mongol signifiant « mouton sauvage ». C'est un des plus gros mouflons.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom argali est un mot mongol signifiant « mouton sauvage ». C'est un des plus gros mouflons.
 Sa taille au garrot atteint 95 à 112 cm, sa longueur est généralement de 140 à 160 cm, et son poids de 60 à 120 kg.
 Les cornes spiralées sont imposantes, pouvant atteindre 1,25 m de long et 50 cm de circonférence à la base, leurs pointes sont toujours dirigées vers l'extérieur.
 </t>
@@ -548,11 +562,13 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les argalis occupent différentes zones montagneuses d'Asie centrale, généralement isolées les unes des autres. 
-On les trouve de 1 300 à 4 200 mètres d'altitude[5].
-Les argalis chinois se trouvent principalement dans des vallées arides à la limite de déserts (Gobi, Taklamalaya, Altun et de Kūnlún Shān), entre 3 600 et 6 000 m de haut[6].
+On les trouve de 1 300 à 4 200 mètres d'altitude.
+Les argalis chinois se trouvent principalement dans des vallées arides à la limite de déserts (Gobi, Taklamalaya, Altun et de Kūnlún Shān), entre 3 600 et 6 000 m de haut.
 La distance génétique moyenne entre argalis de l'ouest et de l'est est de 10 % ce qui suggère que leur divergence remonte à environ 160 000 ans (sous réserve d'étalonnage de leur propre horloge moléculaire).
 </t>
         </is>
@@ -582,7 +598,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'animal est un ruminant. Il se nourrit surtout de graminées et d'herbes.
 </t>
@@ -613,7 +631,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'homme le chasse pour sa viande et pour ses cornes. Le loup et les léopards le chassent également.
 </t>
@@ -644,19 +664,21 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La détermination du nombre de sous-espèces de l'Argali a été discutée. Les sous-espèces retenues comme valides sont les suivantes :
 Argalis d'Asie centrale :
-Ovis ammon nigrimontana, Severtzov, 1873 — argali de Kara Tau, plus ancienne radiation des argalis actuels[6] (groupe frère de tous les autres argalis),
-Ovis ammon severtzovi, Nasonov, 1914, transféré de Ovis vignei à Ovis ammon[7] — argali de Severtzov, originaire des massifs de Beltau, Aktau, Koratau, Malguzar, Tamdytau, Bukantua, Kuldjuktau, et du désert de Kyzylkum, il ne serait significativement présent que dans le Nuratau en Ouzbékistan ;
+Ovis ammon nigrimontana, Severtzov, 1873 — argali de Kara Tau, plus ancienne radiation des argalis actuels (groupe frère de tous les autres argalis),
+Ovis ammon severtzovi, Nasonov, 1914, transféré de Ovis vignei à Ovis ammon — argali de Severtzov, originaire des massifs de Beltau, Aktau, Koratau, Malguzar, Tamdytau, Bukantua, Kuldjuktau, et du désert de Kyzylkum, il ne serait significativement présent que dans le Nuratau en Ouzbékistan ;
 Argalis chinois :
-Ovis ammon ammon[8] — argali de l'Altaï,
+Ovis ammon ammon — argali de l'Altaï,
 Ovis ammon collium, Severtzov, 1873 — argali de Karaganda,
-Ovis ammon comosa[9], Hollister, 1919 — argali du nord de la Chine,
-Ovis ammon darwini[10], Przewalski, 1883 — argali du désert de Gobi,
-Ovis ammon hodgsoni[11] Blyth, 1841 — argali tibétain,
-Ovis ammon karelini[12], Severtzov, 1873 — argali du Tiānshān,
+Ovis ammon comosa, Hollister, 1919 — argali du nord de la Chine,
+Ovis ammon darwini, Przewalski, 1883 — argali du désert de Gobi,
+Ovis ammon hodgsoni Blyth, 1841 — argali tibétain,
+Ovis ammon karelini, Severtzov, 1873 — argali du Tiānshān,
 Ovis ammon polii, Blyth, 1841 — argali de Marco Polo dans le Pamir.</t>
         </is>
       </c>
